--- a/mensajeSecreto.xlsx
+++ b/mensajeSecreto.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="15">
   <si>
     <t>H</t>
   </si>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,9 +298,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,8 +443,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,42 +789,42 @@
   <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC26" sqref="AC26"/>
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="26" t="s">
+      <c r="K1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="M1" s="4"/>
@@ -799,31 +835,31 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="23"/>
+      <c r="U1" s="22"/>
       <c r="V1" s="3"/>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="51" t="s">
+      <c r="X1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" s="62" t="s">
+      <c r="Z1" s="61" t="s">
         <v>1</v>
       </c>
       <c r="AA1" s="4"/>
-      <c r="AB1" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="61" t="s">
+      <c r="AB1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="AE1" s="51" t="s">
+      <c r="AE1" s="50" t="s">
         <v>10</v>
       </c>
       <c r="AF1" s="4"/>
@@ -879,7 +915,7 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="9"/>
-      <c r="U2" s="23"/>
+      <c r="U2" s="22"/>
       <c r="V2" s="6"/>
       <c r="W2" s="7">
         <v>3</v>
@@ -923,7 +959,7 @@
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -949,18 +985,18 @@
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="23"/>
+      <c r="U3" s="22"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="18" t="s">
+      <c r="X3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>3</v>
       </c>
       <c r="AA3" s="8"/>
@@ -985,7 +1021,7 @@
       <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1011,18 +1047,18 @@
       <c r="R4" s="8"/>
       <c r="S4" s="8"/>
       <c r="T4" s="9"/>
-      <c r="U4" s="23"/>
+      <c r="U4" s="22"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="36" t="s">
+      <c r="Y4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Z4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="AA4" s="8"/>
@@ -1047,7 +1083,7 @@
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -1073,18 +1109,18 @@
       <c r="R5" s="8"/>
       <c r="S5" s="8"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="23"/>
+      <c r="U5" s="22"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="X5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="36" t="s">
+      <c r="W5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Z5" s="17" t="s">
         <v>1</v>
       </c>
       <c r="AA5" s="8"/>
@@ -1109,7 +1145,7 @@
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="11" t="s">
@@ -1135,18 +1171,18 @@
       <c r="R6" s="8"/>
       <c r="S6" s="8"/>
       <c r="T6" s="9"/>
-      <c r="U6" s="23"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="6"/>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="36" t="s">
+      <c r="X6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="Z6" s="18" t="s">
+      <c r="Z6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="AA6" s="8"/>
@@ -1187,18 +1223,18 @@
       <c r="R7" s="8"/>
       <c r="S7" s="8"/>
       <c r="T7" s="9"/>
-      <c r="U7" s="23"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="6"/>
-      <c r="W7" s="19" t="s">
+      <c r="W7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="X7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y7" s="36" t="s">
+      <c r="X7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="18" t="s">
+      <c r="Z7" s="17" t="s">
         <v>14</v>
       </c>
       <c r="AA7" s="8"/>
@@ -1220,148 +1256,148 @@
     </row>
     <row r="8" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14">
-        <v>2</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14">
-        <v>3</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14">
+      <c r="B8" s="67">
+        <v>1</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="67">
+        <v>2</v>
+      </c>
+      <c r="G8" s="67"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="67">
+        <v>3</v>
+      </c>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="67">
         <v>4</v>
       </c>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="14">
+      <c r="O8" s="67"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="67">
         <v>5</v>
       </c>
-      <c r="S8" s="14"/>
+      <c r="S8" s="67"/>
       <c r="T8" s="9"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="64"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="54"/>
-      <c r="AP8" s="55"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
+      <c r="AP8" s="54"/>
     </row>
     <row r="9" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19" t="s">
+      <c r="J9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="O9" s="36" t="s">
+      <c r="N9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="Q9" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="34" t="s">
+      <c r="Q9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="S9" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" s="35" t="s">
+      <c r="S9" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="23"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="6"/>
       <c r="W9" s="8"/>
-      <c r="X9" s="14">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="X9" s="67">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
-      <c r="AC9" s="14">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
+      <c r="AC9" s="67">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
       <c r="AF9" s="8"/>
-      <c r="AG9" s="65"/>
-      <c r="AH9" s="14">
-        <v>3</v>
-      </c>
-      <c r="AI9" s="14"/>
-      <c r="AJ9" s="14"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="67">
+        <v>3</v>
+      </c>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
       <c r="AK9" s="8"/>
       <c r="AL9" s="8"/>
-      <c r="AM9" s="14">
+      <c r="AM9" s="67">
         <v>4</v>
       </c>
-      <c r="AN9" s="14"/>
-      <c r="AO9" s="14"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
       <c r="AP9" s="9"/>
     </row>
     <row r="10" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1385,66 +1421,66 @@
       <c r="R10" s="8"/>
       <c r="S10" s="8"/>
       <c r="T10" s="9"/>
-      <c r="U10" s="23"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="6"/>
-      <c r="W10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="X10" s="37" t="s">
+      <c r="W10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="Y10" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB10" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="66" t="s">
+      <c r="Y10" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB10" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AD10" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="66" t="s">
+      <c r="AD10" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AF10" s="66" t="s">
+      <c r="AF10" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AG10" s="19" t="s">
+      <c r="AG10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="AH10" s="19" t="s">
+      <c r="AH10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AI10" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
+      <c r="AI10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK10" s="19" t="s">
+      <c r="AK10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AL10" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM10" s="36" t="s">
+      <c r="AL10" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AN10" s="36" t="s">
+      <c r="AN10" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AO10" s="36" t="s">
+      <c r="AO10" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AP10" s="43" t="s">
+      <c r="AP10" s="42" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1454,19 +1490,19 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="H11" s="38" t="s">
+      <c r="H11" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="29" t="s">
+      <c r="K11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="38" t="s">
         <v>1</v>
       </c>
       <c r="O11" s="8"/>
@@ -1475,7 +1511,7 @@
       <c r="R11" s="8"/>
       <c r="S11" s="8"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="23"/>
+      <c r="U11" s="22"/>
       <c r="V11" s="6"/>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
@@ -1504,7 +1540,7 @@
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="H12" s="40">
+      <c r="H12" s="39">
         <v>2</v>
       </c>
       <c r="I12" s="7">
@@ -1516,7 +1552,7 @@
       <c r="K12" s="7">
         <v>3</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="40">
         <v>4</v>
       </c>
       <c r="O12" s="8"/>
@@ -1525,23 +1561,23 @@
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
       <c r="T12" s="9"/>
-      <c r="U12" s="23"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="6"/>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="49" t="s">
+      <c r="AB12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AC12" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD12" s="51" t="s">
+      <c r="AC12" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="AE12" s="52" t="s">
+      <c r="AE12" s="51" t="s">
         <v>1</v>
       </c>
       <c r="AF12" s="8"/>
@@ -1562,19 +1598,19 @@
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L13" s="43" t="s">
+      <c r="I13" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" s="42" t="s">
         <v>4</v>
       </c>
       <c r="O13" s="8"/>
@@ -1583,14 +1619,14 @@
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="23"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="6"/>
       <c r="W13" s="8"/>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="40">
+      <c r="AB13" s="39">
         <v>3</v>
       </c>
       <c r="AC13" s="7">
@@ -1599,7 +1635,7 @@
       <c r="AD13" s="7">
         <v>4</v>
       </c>
-      <c r="AE13" s="41">
+      <c r="AE13" s="40">
         <v>2</v>
       </c>
       <c r="AF13" s="8"/>
@@ -1620,19 +1656,19 @@
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="34" t="s">
+      <c r="I14" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L14" s="43" t="s">
+      <c r="K14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="42" t="s">
         <v>2</v>
       </c>
       <c r="O14" s="8"/>
@@ -1641,23 +1677,23 @@
       <c r="R14" s="8"/>
       <c r="S14" s="8"/>
       <c r="T14" s="9"/>
-      <c r="U14" s="23"/>
+      <c r="U14" s="22"/>
       <c r="V14" s="6"/>
       <c r="W14" s="8"/>
       <c r="X14" s="8"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="56" t="s">
+      <c r="AB14" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="AC14" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE14" s="59" t="s">
+      <c r="AC14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE14" s="58" t="s">
         <v>3</v>
       </c>
       <c r="AF14" s="8"/>
@@ -1678,19 +1714,19 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="L15" s="43" t="s">
+      <c r="K15" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="42" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="8"/>
@@ -1699,23 +1735,23 @@
       <c r="R15" s="8"/>
       <c r="S15" s="8"/>
       <c r="T15" s="9"/>
-      <c r="U15" s="23"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="6"/>
       <c r="W15" s="8"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="56" t="s">
+      <c r="AB15" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AC15" s="37" t="s">
+      <c r="AC15" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AD15" s="36" t="s">
+      <c r="AD15" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AE15" s="59" t="s">
+      <c r="AE15" s="58" t="s">
         <v>7</v>
       </c>
       <c r="AF15" s="8"/>
@@ -1736,19 +1772,19 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="47" t="s">
+      <c r="J16" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L16" s="48" t="s">
+      <c r="L16" s="47" t="s">
         <v>14</v>
       </c>
       <c r="O16" s="8"/>
@@ -1757,23 +1793,23 @@
       <c r="R16" s="8"/>
       <c r="S16" s="8"/>
       <c r="T16" s="9"/>
-      <c r="U16" s="23"/>
+      <c r="U16" s="22"/>
       <c r="V16" s="6"/>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD16" s="36" t="s">
+      <c r="AB16" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="AE16" s="59" t="s">
+      <c r="AE16" s="58" t="s">
         <v>1</v>
       </c>
       <c r="AF16" s="8"/>
@@ -1789,43 +1825,43 @@
       <c r="AP16" s="9"/>
     </row>
     <row r="17" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22"/>
       <c r="V17" s="6"/>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="8"/>
-      <c r="AB17" s="56" t="s">
+      <c r="AB17" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AC17" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="36" t="s">
+      <c r="AC17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AE17" s="59" t="s">
+      <c r="AE17" s="58" t="s">
         <v>10</v>
       </c>
       <c r="AF17" s="8"/>
@@ -1847,16 +1883,16 @@
       <c r="Y18" s="8"/>
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
-      <c r="AB18" s="57" t="s">
+      <c r="AB18" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AC18" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD18" s="58" t="s">
+      <c r="AC18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AE18" s="60" t="s">
+      <c r="AE18" s="59" t="s">
         <v>14</v>
       </c>
       <c r="AF18" s="8"/>
@@ -1872,37 +1908,189 @@
       <c r="AP18" s="9"/>
     </row>
     <row r="19" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V19" s="20"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="67"/>
-      <c r="AL19" s="21"/>
-      <c r="AM19" s="21"/>
-      <c r="AN19" s="21"/>
-      <c r="AO19" s="21"/>
-      <c r="AP19" s="22"/>
+      <c r="G19" s="76">
+        <v>2</v>
+      </c>
+      <c r="H19" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="V19" s="19"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="20"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="20"/>
+      <c r="AM19" s="20"/>
+      <c r="AN19" s="20"/>
+      <c r="AO19" s="20"/>
+      <c r="AP19" s="21"/>
+    </row>
+    <row r="20" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G20" s="39">
+        <v>5</v>
+      </c>
+      <c r="H20" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
+      <c r="G21" s="39">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" s="76">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21" s="78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G22" s="39">
+        <v>3</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA22" s="39">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G23" s="77">
+        <v>4</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA23" s="39">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD23" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF23" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA24" s="77">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD24" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF24" s="59" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="N26" s="2"/>
       <c r="AC26" s="2"/>
+      <c r="AL26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
